--- a/PRINT LAYOUT LIST 14000617.xlsx
+++ b/PRINT LAYOUT LIST 14000617.xlsx
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="966">
   <si>
     <t>8</t>
   </si>
@@ -3553,9 +3553,6 @@
     <t>1.FileName 2.QueryName</t>
   </si>
   <si>
-    <t xml:space="preserve">1.size    2.QueryName    3.FileName    4.font     </t>
-  </si>
-  <si>
     <t>ستون هایی که با سبز مشخص شده اند کمترین مشکل را دارند و این مشکل در خارج از لی اوت آن ها می باشد</t>
   </si>
   <si>
@@ -3572,6 +3569,45 @@
   </si>
   <si>
     <t>1.size   2.QueryName  3.FileName    4.check Query(P104_)</t>
+  </si>
+  <si>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1</t>
+  </si>
+  <si>
+    <t>این چاپ برای تراز(کل،گروه،معین)می باشد</t>
+  </si>
+  <si>
+    <t>تراز عمودی</t>
+  </si>
+  <si>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1_L2.rtf</t>
+  </si>
+  <si>
+    <t>FINANCE_BALANCE_113_950_MULTIFORMCODE_GENERAL_Q1_L1.rtf</t>
+  </si>
+  <si>
+    <t>تراز افقی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L1.RTF </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L3.RTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F5VOUCHERLISTITEM_113_202_24_Q1_L1.rtf </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L5.RTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DetailedBalence_113_951_MultiFormCode_GENERAL_Q1_L9.rtf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BookOfAccount_113_953_MultiFormCode_GENERAL_Q1_L2.RTF </t>
+  </si>
+  <si>
+    <t>BookOfAccount_113_952_MultiFormCode_GENERAL_Q1_L2.rtf</t>
   </si>
 </sst>
 </file>
@@ -11192,8 +11228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11202,8 +11238,8 @@
     <col min="2" max="3" width="30.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="24"/>
     <col min="6" max="7" width="20.7109375" style="24" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="70.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" style="24" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
@@ -11238,38 +11274,38 @@
     </row>
     <row r="2" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="28">
-        <v>950</v>
-      </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
-        <v>121</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="F2" s="28">
+        <v>1048</v>
+      </c>
+      <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>915</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>69</v>
@@ -11279,261 +11315,263 @@
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="28" t="s">
-        <v>125</v>
+        <v>834</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="28">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
       <c r="I4" s="28" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="28">
-        <v>201</v>
-      </c>
-      <c r="F5" s="28">
-        <v>1049</v>
-      </c>
+        <v>953</v>
+      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="28" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28" t="s">
-        <v>953</v>
+        <v>926</v>
       </c>
       <c r="J5"/>
     </row>
     <row r="6" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="28">
-        <v>974</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+        <v>957</v>
+      </c>
+      <c r="F6" s="28">
+        <v>294</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>829</v>
+      </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28" t="s">
-        <v>918</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>276</v>
+        <v>124</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="28">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
+      <c r="G7" s="28" t="s">
+        <v>125</v>
+      </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>278</v>
+        <v>15</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="28">
-        <v>974</v>
+        <v>203</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>59</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="A9" s="27">
+        <v>22</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="27">
         <v>950</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>921</v>
+      <c r="F9" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>958</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>957</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>130</v>
+        <v>226</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="28">
-        <v>950</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>829</v>
-      </c>
+        <v>952</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28" t="s">
-        <v>947</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E11" s="28">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="28">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="28" t="s">
-        <v>831</v>
-      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E13" s="28">
-        <v>952</v>
+        <v>203</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>15</v>
@@ -11545,24 +11583,26 @@
         <v>69</v>
       </c>
       <c r="E14" s="28">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28" t="s">
+        <v>830</v>
+      </c>
       <c r="H14" s="28"/>
       <c r="I14" s="28" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>69</v>
@@ -11574,64 +11614,66 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="28">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E17" s="28">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="28" t="s">
+        <v>831</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>69</v>
@@ -11648,24 +11690,22 @@
     </row>
     <row r="19" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E19" s="28">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>832</v>
-      </c>
+      <c r="G19" s="28"/>
       <c r="H19" s="28"/>
       <c r="I19" s="28" t="s">
         <v>926</v>
@@ -11673,23 +11713,23 @@
     </row>
     <row r="20" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="28">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="28" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28" t="s">
@@ -11698,24 +11738,22 @@
     </row>
     <row r="21" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="28">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="F21" s="28"/>
-      <c r="G21" s="28" t="s">
-        <v>834</v>
-      </c>
+      <c r="G21" s="28"/>
       <c r="H21" s="28"/>
       <c r="I21" s="28" t="s">
         <v>926</v>
@@ -11723,24 +11761,22 @@
     </row>
     <row r="22" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="28">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F22" s="28"/>
-      <c r="G22" s="28" t="s">
-        <v>835</v>
-      </c>
+      <c r="G22" s="28"/>
       <c r="H22" s="28"/>
       <c r="I22" s="28" t="s">
         <v>926</v>
@@ -11773,24 +11809,22 @@
     </row>
     <row r="24" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="28">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="F24" s="28"/>
-      <c r="G24" s="28" t="s">
-        <v>837</v>
-      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28" t="s">
         <v>926</v>
@@ -11798,24 +11832,22 @@
     </row>
     <row r="25" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E25" s="28">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F25" s="28"/>
-      <c r="G25" s="28" t="s">
-        <v>838</v>
-      </c>
+      <c r="G25" s="28"/>
       <c r="H25" s="28"/>
       <c r="I25" s="28" t="s">
         <v>926</v>
@@ -11823,44 +11855,44 @@
     </row>
     <row r="26" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="28">
-        <v>203</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1048</v>
-      </c>
-      <c r="G26" s="28"/>
+        <v>950</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28" t="s">
+        <v>837</v>
+      </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E27" s="28">
-        <v>203</v>
+        <v>952</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
@@ -11871,22 +11903,24 @@
     </row>
     <row r="28" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="28">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="G28" s="28" t="s">
+        <v>839</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
         <v>926</v>
@@ -11894,19 +11928,19 @@
     </row>
     <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="28">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -11917,22 +11951,24 @@
     </row>
     <row r="30" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="28">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>838</v>
+      </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28" t="s">
         <v>926</v>
@@ -11940,19 +11976,19 @@
     </row>
     <row r="31" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E31" s="28">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -11963,146 +11999,148 @@
     </row>
     <row r="32" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="28">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>828</v>
+      </c>
       <c r="H32" s="28"/>
       <c r="I32" s="28" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="28">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="G33" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="28">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="28">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="F35" s="28"/>
-      <c r="G35" s="28" t="s">
-        <v>839</v>
-      </c>
+      <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="28">
-        <v>203</v>
+        <v>974</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="28" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="28">
-        <v>957</v>
+        <v>201</v>
       </c>
       <c r="F37" s="28">
-        <v>294</v>
+        <v>1049</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12132,29 +12170,29 @@
     </row>
     <row r="39" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>158</v>
+        <v>847</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>158</v>
+        <v>848</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E39" s="34">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F39" s="34">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="H39" s="34"/>
       <c r="I39" s="34" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12185,57 +12223,59 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>168</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>845</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="28">
-        <v>953</v>
-      </c>
-      <c r="F41" s="28">
-        <v>266</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28" t="s">
-        <v>929</v>
+      <c r="A41" s="27">
+        <v>163</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>851</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="27">
+        <v>952</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>843</v>
+      </c>
+      <c r="H41" s="27" t="s">
+        <v>959</v>
+      </c>
+      <c r="I41" s="27" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>847</v>
+        <v>158</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>848</v>
+        <v>158</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E42" s="34">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F42" s="34">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="H42" s="34"/>
       <c r="I42" s="34" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -12266,554 +12306,554 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="28">
+        <v>168</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>845</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="28">
+        <v>953</v>
+      </c>
+      <c r="F44" s="28">
+        <v>266</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
         <v>171</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C45" s="34" t="s">
         <v>848</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="34">
+      <c r="D45" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="34">
         <v>951</v>
       </c>
-      <c r="F44" s="34">
+      <c r="F45" s="34">
         <v>262</v>
       </c>
-      <c r="G44" s="34" t="s">
+      <c r="G45" s="34" t="s">
         <v>850</v>
       </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34" t="s">
+      <c r="H45" s="34"/>
+      <c r="I45" s="34" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>163</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>851</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>852</v>
-      </c>
-      <c r="D45" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="27">
-        <v>952</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>843</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27" t="s">
-        <v>952</v>
-      </c>
-    </row>
     <row r="46" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
-        <v>260</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>853</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="28">
-        <v>1977</v>
-      </c>
-      <c r="F46" s="28">
-        <v>1977</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>855</v>
-      </c>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28" t="s">
-        <v>932</v>
+      <c r="A46" s="34">
+        <v>179</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>907</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="34">
+        <v>201</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1049</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>252</v>
+        <v>865</v>
       </c>
       <c r="D47" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E47" s="27">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>856</v>
+        <v>132</v>
       </c>
       <c r="G47" s="27" t="s">
         <v>63</v>
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <v>201</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="34">
-        <v>1673</v>
-      </c>
-      <c r="F48" s="34">
-        <v>673</v>
-      </c>
-      <c r="G48" s="34" t="s">
-        <v>858</v>
-      </c>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34" t="s">
-        <v>934</v>
+      <c r="A48" s="27">
+        <v>184</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="27">
+        <v>951</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>899</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="27">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>859</v>
+        <v>234</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>860</v>
+        <v>234</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="27">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F49" s="27" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>861</v>
+        <v>252</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>862</v>
+        <v>252</v>
       </c>
       <c r="D50" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="27">
-        <v>202</v>
-      </c>
-      <c r="F50" s="27">
-        <v>24</v>
+        <v>953</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>856</v>
       </c>
       <c r="G50" s="27" t="s">
-        <v>843</v>
+        <v>63</v>
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>312</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>863</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="27">
-        <v>953</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>864</v>
-      </c>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27" t="s">
-        <v>952</v>
+      <c r="A51" s="34">
+        <v>197</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="34">
+        <v>955</v>
+      </c>
+      <c r="F51" s="34">
+        <v>269</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="27">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>865</v>
+        <v>886</v>
       </c>
       <c r="D52" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E52" s="27">
-        <v>950</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>132</v>
+        <v>955</v>
+      </c>
+      <c r="F52" s="27">
+        <v>269</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>63</v>
       </c>
       <c r="H52" s="27"/>
       <c r="I52" s="27" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>295</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>866</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>862</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>867</v>
-      </c>
-      <c r="E53" s="27">
-        <v>202</v>
-      </c>
-      <c r="F53" s="27">
-        <v>24</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>868</v>
-      </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27" t="s">
-        <v>936</v>
+      <c r="A53" s="25">
+        <v>199</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>897</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="29">
+        <v>955</v>
+      </c>
+      <c r="F53" s="29">
+        <v>269</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>896</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
-        <v>263</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="28">
-        <v>1976</v>
-      </c>
-      <c r="F54" s="28">
-        <v>1976</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28" t="s">
-        <v>937</v>
+      <c r="A54" s="27">
+        <v>200</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="27">
+        <v>235</v>
+      </c>
+      <c r="F54" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
-        <v>294</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>870</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>862</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="29">
-        <v>202</v>
-      </c>
-      <c r="F55" s="29">
-        <v>24</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>871</v>
-      </c>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29" t="s">
-        <v>872</v>
+      <c r="A55" s="34">
+        <v>201</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="34">
+        <v>1673</v>
+      </c>
+      <c r="F55" s="34">
+        <v>673</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
-        <v>297</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>873</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="29">
-        <v>202</v>
-      </c>
-      <c r="F56" s="29">
-        <v>24</v>
-      </c>
-      <c r="G56" s="29" t="s">
-        <v>875</v>
-      </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29" t="s">
-        <v>876</v>
+      <c r="A56" s="27">
+        <v>208</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>900</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="27">
+        <v>235</v>
+      </c>
+      <c r="F56" s="27">
+        <v>1100</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29">
-        <v>298</v>
+        <v>209</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>877</v>
+        <v>109</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>874</v>
+        <v>900</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E57" s="29">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F57" s="29">
-        <v>24</v>
+        <v>1100</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>878</v>
+        <v>54</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="29" t="s">
-        <v>879</v>
+        <v>941</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>880</v>
+        <v>109</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>862</v>
+        <v>900</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E58" s="29">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F58" s="29">
-        <v>24</v>
+        <v>1100</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>881</v>
+        <v>66</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="29" t="s">
-        <v>879</v>
+        <v>942</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29">
-        <v>300</v>
+        <v>211</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>882</v>
+        <v>109</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>874</v>
+        <v>109</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E59" s="29">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="F59" s="29">
-        <v>24</v>
+        <v>1100</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>883</v>
+        <v>56</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="29" t="s">
-        <v>879</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
-        <v>197</v>
-      </c>
-      <c r="B60" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>884</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E60" s="34">
-        <v>955</v>
-      </c>
-      <c r="F60" s="34">
-        <v>269</v>
-      </c>
-      <c r="G60" s="34" t="s">
-        <v>885</v>
-      </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34" t="s">
-        <v>938</v>
+      <c r="A60" s="29">
+        <v>212</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="29">
+        <v>235</v>
+      </c>
+      <c r="F60" s="29">
+        <v>1100</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
-        <v>198</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>886</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="27">
-        <v>955</v>
-      </c>
-      <c r="F61" s="27">
-        <v>269</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27" t="s">
-        <v>939</v>
+      <c r="A61" s="29">
+        <v>213</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="29">
+        <v>235</v>
+      </c>
+      <c r="F61" s="29">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
-        <v>277</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E62" s="27">
-        <v>951</v>
-      </c>
-      <c r="F62" s="27">
+      <c r="A62" s="28">
+        <v>260</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>853</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>854</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="28">
+        <v>1977</v>
+      </c>
+      <c r="F62" s="28">
+        <v>1977</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>855</v>
+      </c>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
         <v>263</v>
       </c>
-      <c r="G62" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
-        <v>278</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="27">
-        <v>951</v>
-      </c>
-      <c r="F63" s="27">
-        <v>263</v>
-      </c>
-      <c r="G63" s="27" t="s">
-        <v>887</v>
-      </c>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27" t="s">
-        <v>952</v>
+      <c r="B63" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="28">
+        <v>1976</v>
+      </c>
+      <c r="F63" s="28">
+        <v>1976</v>
+      </c>
+      <c r="G63" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>860</v>
+        <v>174</v>
       </c>
       <c r="D64" s="27" t="s">
         <v>69</v>
@@ -12821,26 +12861,28 @@
       <c r="E64" s="27">
         <v>951</v>
       </c>
-      <c r="F64" s="27">
-        <v>263</v>
+      <c r="F64" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="G64" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="H64" s="27"/>
+        <v>212</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="I64" s="27" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="27">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>190</v>
+        <v>859</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>174</v>
+        <v>860</v>
       </c>
       <c r="D65" s="27" t="s">
         <v>69</v>
@@ -12848,26 +12890,28 @@
       <c r="E65" s="27">
         <v>951</v>
       </c>
-      <c r="F65" s="27">
-        <v>263</v>
+      <c r="F65" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="G65" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="H65" s="27"/>
+        <v>175</v>
+      </c>
+      <c r="H65" s="27" t="s">
+        <v>176</v>
+      </c>
       <c r="I65" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="27">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>174</v>
+        <v>860</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>69</v>
@@ -12879,19 +12923,21 @@
         <v>263</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>890</v>
-      </c>
-      <c r="H66" s="27"/>
+        <v>179</v>
+      </c>
+      <c r="H66" s="27" t="s">
+        <v>180</v>
+      </c>
       <c r="I66" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="27">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C67" s="27" t="s">
         <v>174</v>
@@ -12906,22 +12952,24 @@
         <v>263</v>
       </c>
       <c r="G67" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H67" s="27"/>
+        <v>887</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>184</v>
+      </c>
       <c r="I67" s="27" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="27">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>199</v>
+        <v>888</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>174</v>
+        <v>860</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>69</v>
@@ -12933,17 +12981,21 @@
         <v>263</v>
       </c>
       <c r="G68" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
+        <v>889</v>
+      </c>
+      <c r="H68" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="69" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="27">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>174</v>
@@ -12958,17 +13010,21 @@
         <v>263</v>
       </c>
       <c r="G69" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
+        <v>189</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I69" s="27" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="70" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="27">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>891</v>
+        <v>193</v>
       </c>
       <c r="C70" s="27" t="s">
         <v>174</v>
@@ -12983,17 +13039,21 @@
         <v>263</v>
       </c>
       <c r="G70" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
+        <v>890</v>
+      </c>
+      <c r="H70" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="27" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="27">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C71" s="27" t="s">
         <v>174</v>
@@ -13008,99 +13068,105 @@
         <v>263</v>
       </c>
       <c r="G71" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
+        <v>195</v>
+      </c>
+      <c r="H71" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71" s="27" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="72" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="27">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>892</v>
+        <v>199</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>842</v>
+        <v>174</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E72" s="27">
-        <v>953</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>245</v>
+        <v>951</v>
+      </c>
+      <c r="F72" s="27">
+        <v>263</v>
       </c>
       <c r="G72" s="27" t="s">
-        <v>893</v>
-      </c>
-      <c r="H72" s="27"/>
+        <v>198</v>
+      </c>
+      <c r="H72" s="27" t="s">
+        <v>963</v>
+      </c>
       <c r="I72" s="27"/>
     </row>
     <row r="73" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29">
-        <v>296</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>894</v>
-      </c>
-      <c r="C73" s="29" t="s">
-        <v>874</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="29">
+      <c r="A73" s="27">
+        <v>284</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F73" s="29">
-        <v>24</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>895</v>
-      </c>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29" t="s">
-        <v>879</v>
-      </c>
+      <c r="C73" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="27">
+        <v>951</v>
+      </c>
+      <c r="F73" s="27">
+        <v>263</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H73" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I73" s="27"/>
     </row>
     <row r="74" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25">
-        <v>199</v>
-      </c>
-      <c r="B74" s="29" t="s">
-        <v>896</v>
-      </c>
-      <c r="C74" s="29" t="s">
-        <v>897</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="29">
-        <v>955</v>
-      </c>
-      <c r="F74" s="29">
-        <v>269</v>
-      </c>
-      <c r="G74" s="29" t="s">
-        <v>896</v>
-      </c>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29" t="s">
-        <v>940</v>
-      </c>
+      <c r="A74" s="27">
+        <v>285</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>891</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="27">
+        <v>951</v>
+      </c>
+      <c r="F74" s="27">
+        <v>263</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" s="27"/>
     </row>
     <row r="75" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="27">
-        <v>184</v>
+        <v>286</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>898</v>
+        <v>208</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="D75" s="27" t="s">
         <v>69</v>
@@ -13108,419 +13174,457 @@
       <c r="E75" s="27">
         <v>951</v>
       </c>
-      <c r="F75" s="27" t="s">
-        <v>177</v>
+      <c r="F75" s="27">
+        <v>263</v>
       </c>
       <c r="G75" s="27" t="s">
-        <v>899</v>
-      </c>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27" t="s">
-        <v>946</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="H75" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="I75" s="27"/>
     </row>
     <row r="76" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29">
-        <v>209</v>
-      </c>
-      <c r="B76" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D76" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="29">
-        <v>235</v>
-      </c>
-      <c r="F76" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G76" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H76" s="29"/>
-      <c r="I76" s="29" t="s">
-        <v>941</v>
-      </c>
+      <c r="A76" s="27">
+        <v>287</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>892</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="27">
+        <v>953</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>893</v>
+      </c>
+      <c r="H76" s="27" t="s">
+        <v>964</v>
+      </c>
+      <c r="I76" s="27"/>
     </row>
     <row r="77" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29">
-        <v>210</v>
-      </c>
-      <c r="B77" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>900</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="29">
-        <v>235</v>
-      </c>
-      <c r="F77" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G77" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="H77" s="29"/>
-      <c r="I77" s="29" t="s">
-        <v>942</v>
+      <c r="A77" s="28">
+        <v>288</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>902</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>863</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="28">
+        <v>953</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>903</v>
+      </c>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29">
-        <v>211</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" s="29">
-        <v>235</v>
-      </c>
-      <c r="F78" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="29"/>
-      <c r="I78" s="29" t="s">
-        <v>940</v>
+      <c r="A78" s="27">
+        <v>289</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>842</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="27">
+        <v>953</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>906</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>905</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29">
-        <v>212</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79" s="29">
-        <v>235</v>
-      </c>
-      <c r="F79" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G79" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29" t="s">
-        <v>940</v>
-      </c>
+      <c r="A79" s="27">
+        <v>290</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>911</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>909</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="27">
+        <v>952</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>965</v>
+      </c>
+      <c r="I79" s="27"/>
     </row>
     <row r="80" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29">
-        <v>213</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E80" s="29">
-        <v>235</v>
-      </c>
-      <c r="F80" s="29">
-        <v>1100</v>
-      </c>
-      <c r="G80" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29" t="s">
-        <v>943</v>
-      </c>
+      <c r="A80" s="27">
+        <v>291</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>913</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>852</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="27">
+        <v>952</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>903</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="I80" s="27"/>
     </row>
     <row r="81" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="27">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>901</v>
+        <v>908</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>174</v>
+        <v>909</v>
       </c>
       <c r="D81" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E81" s="27">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F81" s="27" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="G81" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="H81" s="27"/>
+        <v>910</v>
+      </c>
+      <c r="H81" s="27" t="s">
+        <v>908</v>
+      </c>
       <c r="I81" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="27">
-        <v>200</v>
+        <v>293</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>116</v>
+        <v>861</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>116</v>
+        <v>862</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E82" s="27">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="F82" s="27">
-        <v>1100</v>
+        <v>24</v>
       </c>
       <c r="G82" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H82" s="27"/>
+        <v>843</v>
+      </c>
+      <c r="H82" s="27" t="s">
+        <v>961</v>
+      </c>
       <c r="I82" s="27" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27">
-        <v>208</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C83" s="27" t="s">
-        <v>900</v>
-      </c>
-      <c r="D83" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E83" s="27">
-        <v>235</v>
-      </c>
-      <c r="F83" s="27">
-        <v>1100</v>
-      </c>
-      <c r="G83" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27" t="s">
-        <v>944</v>
+      <c r="A83" s="29">
+        <v>294</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>870</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="29">
+        <v>202</v>
+      </c>
+      <c r="F83" s="29">
+        <v>24</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>871</v>
+      </c>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28">
-        <v>288</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>902</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>863</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="28">
-        <v>953</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>903</v>
-      </c>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28" t="s">
-        <v>904</v>
+      <c r="A84" s="27">
+        <v>295</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>866</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>862</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>867</v>
+      </c>
+      <c r="E84" s="27">
+        <v>202</v>
+      </c>
+      <c r="F84" s="27">
+        <v>24</v>
+      </c>
+      <c r="G84" s="27" t="s">
+        <v>868</v>
+      </c>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27">
-        <v>289</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>905</v>
-      </c>
-      <c r="C85" s="27" t="s">
-        <v>842</v>
-      </c>
-      <c r="D85" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E85" s="27">
-        <v>953</v>
-      </c>
-      <c r="F85" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="G85" s="27" t="s">
-        <v>906</v>
-      </c>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27" t="s">
-        <v>951</v>
+      <c r="A85" s="29">
+        <v>296</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>894</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="29">
+        <v>202</v>
+      </c>
+      <c r="F85" s="29">
+        <v>24</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>895</v>
+      </c>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
-        <v>179</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" s="34" t="s">
-        <v>907</v>
-      </c>
-      <c r="D86" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E86" s="34">
-        <v>201</v>
-      </c>
-      <c r="F86" s="34">
-        <v>1049</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34" t="s">
-        <v>945</v>
+      <c r="A86" s="29">
+        <v>297</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>873</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="29">
+        <v>202</v>
+      </c>
+      <c r="F86" s="29">
+        <v>24</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>875</v>
+      </c>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
-        <v>185</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E87" s="27">
-        <v>952</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G87" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27" t="s">
-        <v>946</v>
+      <c r="A87" s="29">
+        <v>298</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>877</v>
+      </c>
+      <c r="C87" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="29">
+        <v>202</v>
+      </c>
+      <c r="F87" s="29">
+        <v>24</v>
+      </c>
+      <c r="G87" s="29" t="s">
+        <v>878</v>
+      </c>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27">
-        <v>292</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>908</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>909</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E88" s="27">
-        <v>952</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G88" s="27" t="s">
-        <v>910</v>
-      </c>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27" t="s">
-        <v>951</v>
+      <c r="A88" s="29">
+        <v>299</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>880</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>862</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="29">
+        <v>202</v>
+      </c>
+      <c r="F88" s="29">
+        <v>24</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>881</v>
+      </c>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
-        <v>290</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>911</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>909</v>
-      </c>
-      <c r="D89" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="27">
-        <v>952</v>
-      </c>
-      <c r="F89" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
+      <c r="A89" s="29">
+        <v>300</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>882</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>874</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="29">
+        <v>202</v>
+      </c>
+      <c r="F89" s="29">
+        <v>24</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>883</v>
+      </c>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="27">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>913</v>
+        <v>842</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>852</v>
+        <v>863</v>
       </c>
       <c r="D90" s="27" t="s">
         <v>69</v>
       </c>
       <c r="E90" s="27">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F90" s="27" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G90" s="27" t="s">
-        <v>903</v>
-      </c>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-    </row>
-    <row r="91" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>864</v>
+      </c>
+      <c r="H90" s="27" t="s">
+        <v>962</v>
+      </c>
+      <c r="I90" s="27" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
+        <v>320</v>
+      </c>
+      <c r="B91" s="27" t="s">
+        <v>953</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>954</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="27">
+        <v>950</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="H91" s="27" t="s">
+        <v>956</v>
+      </c>
+      <c r="I91" s="27"/>
+    </row>
     <row r="92" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I92" s="26" t="s">
         <v>914</v>
@@ -13529,23 +13633,27 @@
     <row r="93" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I94" s="30" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I95" s="31" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I96" s="32" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="97" spans="9:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I97" s="33"/>
     </row>
   </sheetData>
+  <sortState ref="A2:I97">
+    <sortCondition ref="A59"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>